--- a/チェックリスト.xlsx
+++ b/チェックリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0dbc153196371d5/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\cre\Develop_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{EC00F0FE-A5D4-4D06-B7E5-0DB30E16970E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C99224D-B617-4BDC-BD70-A865EC4CD9FA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731A2B2B-A000-4423-B4AB-9E9A33752CA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{763CB05E-9BFD-4B6B-825B-022FB82FE4E2}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{763CB05E-9BFD-4B6B-825B-022FB82FE4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="チェックリスト" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -110,6 +100,228 @@
   </si>
   <si>
     <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csv出力</t>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績出力</t>
+    <rPh sb="0" eb="4">
+      <t>セイセキシュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csv読み込み</t>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csv書き出し</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルが存在しない場合</t>
+    <rPh sb="5" eb="7">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルが存在する場合</t>
+    <rPh sb="5" eb="7">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルのディレクトリを変更する</t>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別名ファイルを用意する</t>
+    <rPh sb="0" eb="2">
+      <t>ベツメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>make_csv.pyを実行する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>境界値テスト</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2回</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3回</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4回</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30点を取った回数</t>
+    <rPh sb="0" eb="9">
+      <t>サンジュッテンヲトッタカイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再テスト</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不合格</t>
+    <rPh sb="0" eb="3">
+      <t>フゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再テストなし</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低点</t>
+    <rPh sb="0" eb="3">
+      <t>サイテイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11点</t>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10点</t>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9点</t>
+    <rPh sb="1" eb="2">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不合格でない</t>
+    <rPh sb="0" eb="3">
+      <t>フゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>31点</t>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30点</t>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>29点</t>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3回以上とった点数</t>
+    <rPh sb="0" eb="4">
+      <t>サンカイイジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テンスウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -134,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +359,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -171,13 +389,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,13 +565,49 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,49 +923,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3005D7F-C563-45FE-BB6B-736291B4A603}">
-  <dimension ref="A2:Y14"/>
+  <dimension ref="A2:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
       <c r="W2" s="1" t="s">
         <v>4</v>
       </c>
@@ -563,18 +978,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -590,18 +1013,26 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -617,12 +1048,14 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -632,7 +1065,9 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -644,12 +1079,14 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -671,17 +1108,17 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -698,18 +1135,24 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -725,18 +1168,24 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -752,18 +1201,22 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -779,18 +1232,22 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -806,18 +1263,20 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="E12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -833,18 +1292,22 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A13" s="8"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -860,18 +1323,22 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -887,63 +1354,100 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B15" s="13"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B16" s="13"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="13"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="13"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B9:D9"/>
+  <mergeCells count="83">
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B9:D19"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
@@ -959,16 +1463,58 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="S9:V9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/チェックリスト.xlsx
+++ b/チェックリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\cre\Develop_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731A2B2B-A000-4423-B4AB-9E9A33752CA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BE7C3E-AE66-4B64-AC1E-FB86E231D6F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{763CB05E-9BFD-4B6B-825B-022FB82FE4E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -321,6 +321,72 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>テンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常系テスト</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力CSVファイルのCSVフォーマットが異なっている場合</t>
+  </si>
+  <si>
+    <t>出力CSVファイルが書き込めなかった場合</t>
+  </si>
+  <si>
+    <t>入力CSVファイルが存在しない場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルが存在しないことを示すメッセージ文を表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーマットが異なっていることを示すメッセージ文を表示</t>
+    <rPh sb="7" eb="8">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書き込めなかったことを示すメッセージ文を表示</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -346,7 +412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,8 +431,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -548,13 +620,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -567,7 +650,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -579,12 +683,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -594,19 +692,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3005D7F-C563-45FE-BB6B-736291B4A603}">
-  <dimension ref="A2:Y19"/>
+  <dimension ref="A2:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -935,39 +1033,39 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
       <c r="W2" s="1" t="s">
         <v>4</v>
       </c>
@@ -980,466 +1078,594 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
     <row r="7" spans="1:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="9" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B15" s="13"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="14"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B16" s="13"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="9" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="13"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B17" s="9"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="13"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B18" s="9"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16" t="s">
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B22" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B24" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B9:D19"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
+  <mergeCells count="91">
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
@@ -1452,66 +1678,22 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="O2:R2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B9:D19"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H9:J9"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="S9:V9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
